--- a/hardware/mother_board/MMU2S_HW_BOM.xlsx
+++ b/hardware/mother_board/MMU2S_HW_BOM.xlsx
@@ -109,6 +109,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <charset val="0"/>
+      </rPr>
       <t>LED</t>
     </r>
     <r>
@@ -227,6 +232,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <charset val="0"/>
+      </rPr>
       <t>8</t>
     </r>
     <r>
@@ -249,6 +259,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <charset val="0"/>
+      </rPr>
       <t>DCDC</t>
     </r>
     <r>
@@ -277,6 +292,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
       <t>低压差线性稳压器</t>
     </r>
     <r>
@@ -356,6 +376,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <charset val="0"/>
+      </rPr>
       <t>HB9500-9.5-2P</t>
     </r>
     <r>
@@ -609,6 +634,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <charset val="0"/>
+      </rPr>
       <t>usb</t>
     </r>
     <r>
@@ -664,6 +694,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <charset val="0"/>
+      </rPr>
       <t>2</t>
     </r>
     <r>
@@ -677,6 +712,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <charset val="0"/>
+      </rPr>
       <t>8</t>
     </r>
     <r>
@@ -690,6 +730,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <charset val="0"/>
+      </rPr>
       <t>8</t>
     </r>
     <r>
@@ -703,6 +748,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <charset val="0"/>
+      </rPr>
       <t>12mm</t>
     </r>
     <r>
@@ -719,6 +769,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <charset val="0"/>
+      </rPr>
       <t>8mm</t>
     </r>
     <r>
@@ -732,6 +787,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <charset val="0"/>
+      </rPr>
       <t>7mm</t>
     </r>
     <r>
@@ -1413,7 +1473,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1424,28 +1484,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1779,8 +1827,8 @@
   </sheetPr>
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="L58" sqref="L58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1798,1148 +1846,1148 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:8">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="8" ht="49" customHeight="1" spans="1:8">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="14" ht="27" customHeight="1" spans="1:8">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="11" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="10" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="10" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="11" t="s">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="11" t="s">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" ht="63" customHeight="1" spans="1:8">
+      <c r="A21" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H21" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="21" ht="63" customHeight="1" spans="1:8">
-      <c r="A21" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="11" t="s">
+    <row r="22" spans="1:8">
+      <c r="A22" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="H21" s="7">
+      <c r="E22" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H22" s="7">
+    <row r="23" spans="1:8">
+      <c r="A23" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H23" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="11" t="s">
+    <row r="24" spans="1:8">
+      <c r="A24" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H24" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H23" s="7">
+      <c r="E25" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H26" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H24" s="7">
+    <row r="27" spans="1:8">
+      <c r="A27" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H27" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H25" s="7">
+    <row r="28" spans="1:8">
+      <c r="A28" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H28" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H29" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H30" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H31" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" ht="40.5" customHeight="1" spans="1:8">
+      <c r="A32" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H32" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H33" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H26" s="7">
+    <row r="34" spans="1:8">
+      <c r="A34" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H34" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H27" s="7">
+    <row r="35" spans="1:8">
+      <c r="A35" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H35" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H28" s="7">
+    <row r="36" spans="1:8">
+      <c r="A36" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H36" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H37" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H29" s="7">
+    <row r="38" spans="1:8">
+      <c r="A38" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H38" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H39" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H30" s="7">
+    <row r="40" spans="1:8">
+      <c r="A40" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H40" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="H31" s="7">
+    <row r="41" spans="1:8">
+      <c r="A41" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H41" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H42" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="32" ht="40.5" customHeight="1" spans="1:8">
-      <c r="A32" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D32" s="11" t="s">
+    <row r="43" spans="1:8">
+      <c r="A43" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F32" s="7" t="s">
+      <c r="E43" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G43" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="H32" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H33" s="7">
+      <c r="H43" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H34" s="7">
+    <row r="44" spans="1:8">
+      <c r="A44" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="H44" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H45" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="H46" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" ht="27" customHeight="1" spans="1:8">
+      <c r="A47" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="H47" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H35" s="7">
+    <row r="48" spans="1:8">
+      <c r="A48" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="H48" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H36" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H37" s="7">
+    <row r="49" spans="1:8">
+      <c r="A49" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="H49" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H38" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H39" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H40" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H41" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H42" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H43" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H44" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="H45" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="H46" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" ht="27" customHeight="1" spans="1:8">
-      <c r="A47" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="H47" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="H48" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="H49" s="7">
-        <v>1</v>
-      </c>
-    </row>
     <row r="50" ht="75" customHeight="1" spans="1:12">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="E50" s="13" t="s">
+      <c r="E50" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="F50" s="13" t="s">
+      <c r="F50" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="G50" s="12" t="s">
+      <c r="G50" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="H50" s="13" t="s">
+      <c r="H50" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="L50" s="13" t="s">
+      <c r="L50" s="9" t="s">
         <v>200</v>
       </c>
     </row>

--- a/hardware/mother_board/MMU2S_HW_BOM.xlsx
+++ b/hardware/mother_board/MMU2S_HW_BOM.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="204">
   <si>
     <t>Comment</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>数量</t>
+  </si>
+  <si>
+    <t>特别注意连接器间距,电容耐压.器件高温性能</t>
   </si>
   <si>
     <t>10uF</t>
@@ -177,6 +180,9 @@
     <t>100uF</t>
   </si>
   <si>
+    <t>建议耐高温</t>
+  </si>
+  <si>
     <t>贴片电解电容</t>
   </si>
   <si>
@@ -661,6 +667,9 @@
   </si>
   <si>
     <t>16MHZ</t>
+  </si>
+  <si>
+    <t>建议车规级,耐高温</t>
   </si>
   <si>
     <t>4脚无源晶振</t>
@@ -1828,15 +1837,16 @@
   <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="8" width="20.2095238095238" customWidth="1"/>
+    <col min="9" max="9" width="23.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" ht="52" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1861,24 +1871,27 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" s="5">
         <v>4</v>
@@ -1886,21 +1899,21 @@
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:8">
       <c r="A3" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" s="5">
         <v>7</v>
@@ -1908,21 +1921,21 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" s="5">
         <v>1</v>
@@ -1930,21 +1943,21 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5" s="5">
         <v>3</v>
@@ -1952,21 +1965,21 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H6" s="5">
         <v>2</v>
@@ -1974,25 +1987,25 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H7" s="5">
         <v>1</v>
@@ -2000,21 +2013,21 @@
     </row>
     <row r="8" ht="49" customHeight="1" spans="1:8">
       <c r="A8" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H8" s="5">
         <v>14</v>
@@ -2022,25 +2035,25 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="H9" s="5">
         <v>1</v>
@@ -2048,25 +2061,25 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" s="5">
         <v>2</v>
@@ -2074,21 +2087,23 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H11" s="5">
         <v>3</v>
@@ -2096,21 +2111,21 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="H12" s="5">
         <v>1</v>
@@ -2118,25 +2133,25 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H13" s="5">
         <v>1</v>
@@ -2144,23 +2159,23 @@
     </row>
     <row r="14" ht="27" customHeight="1" spans="1:8">
       <c r="A14" s="11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="H14" s="5">
         <v>1</v>
@@ -2168,23 +2183,23 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="H15" s="5">
         <v>2</v>
@@ -2192,21 +2207,21 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E16" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="H16" s="5">
         <v>1</v>
@@ -2214,25 +2229,25 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H17" s="5">
         <v>1</v>
@@ -2240,25 +2255,25 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="H18" s="5">
         <v>1</v>
@@ -2266,23 +2281,23 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="H19" s="5">
         <v>1</v>
@@ -2290,21 +2305,21 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H20" s="5">
         <v>3</v>
@@ -2312,21 +2327,21 @@
     </row>
     <row r="21" ht="63" customHeight="1" spans="1:8">
       <c r="A21" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H21" s="5">
         <v>1</v>
@@ -2334,21 +2349,21 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F22" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="H22" s="5">
         <v>1</v>
@@ -2356,21 +2371,21 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F23" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="H23" s="5">
         <v>1</v>
@@ -2378,21 +2393,21 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E24" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>105</v>
       </c>
       <c r="H24" s="5">
         <v>1</v>
@@ -2400,21 +2415,21 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F25" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="H25" s="5">
         <v>2</v>
@@ -2422,21 +2437,21 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F26" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="H26" s="5">
         <v>1</v>
@@ -2444,21 +2459,21 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E27" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>115</v>
-      </c>
       <c r="G27" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H27" s="5">
         <v>1</v>
@@ -2466,21 +2481,21 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H28" s="5">
         <v>1</v>
@@ -2488,21 +2503,21 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="H29" s="5">
         <v>1</v>
@@ -2510,21 +2525,21 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="H30" s="5">
         <v>1</v>
@@ -2532,23 +2547,23 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E31" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="H31" s="5">
         <v>1</v>
@@ -2556,25 +2571,25 @@
     </row>
     <row r="32" ht="40.5" customHeight="1" spans="1:8">
       <c r="A32" s="11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H32" s="5">
         <v>10</v>
@@ -2582,21 +2597,21 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="11" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E33" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="H33" s="5">
         <v>2</v>
@@ -2604,21 +2619,21 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="11" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H34" s="5">
         <v>1</v>
@@ -2626,21 +2641,21 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H35" s="5">
         <v>1</v>
@@ -2648,21 +2663,21 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H36" s="5">
         <v>3</v>
@@ -2670,21 +2685,21 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H37" s="5">
         <v>1</v>
@@ -2692,21 +2707,21 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H38" s="5">
         <v>2</v>
@@ -2714,21 +2729,21 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="11" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H39" s="5">
         <v>1</v>
@@ -2736,21 +2751,21 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H40" s="5">
         <v>1</v>
@@ -2758,21 +2773,21 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H41" s="5">
         <v>2</v>
@@ -2780,21 +2795,21 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="11" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H42" s="5">
         <v>1</v>
@@ -2802,21 +2817,21 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H43" s="5">
         <v>2</v>
@@ -2824,21 +2839,21 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="11" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H44" s="5">
         <v>3</v>
@@ -2846,25 +2861,25 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H45" s="5">
         <v>2</v>
@@ -2872,21 +2887,21 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E46" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="F46" s="5" t="s">
-        <v>173</v>
-      </c>
       <c r="G46" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H46" s="5">
         <v>3</v>
@@ -2894,25 +2909,25 @@
     </row>
     <row r="47" ht="27" customHeight="1" spans="1:8">
       <c r="A47" s="11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H47" s="5">
         <v>1</v>
@@ -2920,21 +2935,23 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="B48" s="5"/>
+        <v>185</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>186</v>
+      </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H48" s="5">
         <v>1</v>
@@ -2942,21 +2959,21 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="11" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F49" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G49" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="H49" s="5">
         <v>1</v>
@@ -2964,31 +2981,31 @@
     </row>
     <row r="50" ht="75" customHeight="1" spans="1:12">
       <c r="A50" s="8" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/hardware/mother_board/MMU2S_HW_BOM.xlsx
+++ b/hardware/mother_board/MMU2S_HW_BOM.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="203">
   <si>
     <t>Comment</t>
   </si>
@@ -180,7 +180,7 @@
     <t>100uF</t>
   </si>
   <si>
-    <t>建议耐高温</t>
+    <t>建议车规级,耐高温</t>
   </si>
   <si>
     <t>贴片电解电容</t>
@@ -667,9 +667,6 @@
   </si>
   <si>
     <t>16MHZ</t>
-  </si>
-  <si>
-    <t>建议车规级,耐高温</t>
   </si>
   <si>
     <t>4脚无源晶振</t>
@@ -1836,8 +1833,8 @@
   </sheetPr>
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2938,20 +2935,20 @@
         <v>185</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>186</v>
+        <v>48</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="F48" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="G48" s="5" t="s">
         <v>189</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>190</v>
       </c>
       <c r="H48" s="5">
         <v>1</v>
@@ -2959,21 +2956,21 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E49" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="F49" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="F49" s="5" t="s">
-        <v>194</v>
-      </c>
       <c r="G49" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H49" s="5">
         <v>1</v>
@@ -2981,31 +2978,31 @@
     </row>
     <row r="50" ht="75" customHeight="1" spans="1:12">
       <c r="A50" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="C50" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="D50" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="E50" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="F50" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="F50" s="9" t="s">
+      <c r="G50" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="G50" s="8" t="s">
+      <c r="H50" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="H50" s="9" t="s">
+      <c r="L50" s="9" t="s">
         <v>202</v>
-      </c>
-      <c r="L50" s="9" t="s">
-        <v>203</v>
       </c>
     </row>
   </sheetData>
